--- a/VersionRecords/Version 5.3.6.2 20170330/版本Bug和特性计划及评审表v5.3.6.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.6.2 20170330/版本Bug和特性计划及评审表v5.3.6.2_马丁组.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.6.1 20170330/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.6.2 20170330/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.3.5.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.3.6.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.5.2 新特性|Fix Bug'!$A$1:$W$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.6.2 新特性|Fix Bug'!$A$1:$W$9</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -416,6 +416,19 @@
   <si>
     <t>DV-2729</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>依米，依然</t>
+    <rPh sb="0" eb="1">
+      <t>yi'mi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'ran</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
   </si>
 </sst>
 </file>
@@ -1140,6 +1153,24 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,24 +1196,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1643,7 +1656,7 @@
       <c r="R1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="81" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="50" t="s">
@@ -1698,16 +1711,22 @@
       <c r="N2" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="87" t="s">
+      <c r="O2" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="59">
+        <v>42823</v>
+      </c>
+      <c r="R2" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="91" t="s">
+      <c r="S2" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="88"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="56"/>
       <c r="V2" s="64"/>
       <c r="W2" s="77"/>
@@ -1752,16 +1771,22 @@
       <c r="N3" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="87" t="s">
+      <c r="O3" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42823</v>
+      </c>
+      <c r="R3" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="88"/>
+      <c r="T3" s="79"/>
       <c r="U3" s="56"/>
       <c r="V3" s="64"/>
       <c r="W3" s="76"/>
@@ -1806,16 +1831,22 @@
       <c r="N4" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="87" t="s">
+      <c r="O4" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>42823</v>
+      </c>
+      <c r="R4" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="89"/>
+      <c r="T4" s="80"/>
       <c r="U4" s="65"/>
       <c r="V4" s="64"/>
       <c r="W4" s="76"/>
@@ -1860,16 +1891,22 @@
       <c r="N5" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="87" t="s">
+      <c r="O5" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>42823</v>
+      </c>
+      <c r="R5" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="92" t="s">
+      <c r="S5" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="T5" s="88"/>
+      <c r="T5" s="79"/>
       <c r="U5" s="56"/>
       <c r="V5" s="64"/>
       <c r="W5" s="76"/>
@@ -1914,16 +1951,22 @@
       <c r="N6" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="87" t="s">
+      <c r="O6" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>42823</v>
+      </c>
+      <c r="R6" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="88"/>
+      <c r="T6" s="79"/>
       <c r="U6" s="56"/>
       <c r="V6" s="64"/>
       <c r="W6" s="76"/>
@@ -1968,16 +2011,22 @@
       <c r="N7" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="87" t="s">
+      <c r="O7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>42823</v>
+      </c>
+      <c r="R7" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="92" t="s">
+      <c r="S7" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="88"/>
+      <c r="T7" s="79"/>
       <c r="U7" s="56"/>
       <c r="V7" s="56"/>
       <c r="W7" s="57"/>
@@ -2021,16 +2070,22 @@
       <c r="N8" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="87" t="s">
+      <c r="O8" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>42823</v>
+      </c>
+      <c r="R8" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="S8" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="T8" s="88"/>
+      <c r="T8" s="79"/>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
       <c r="W8" s="57"/>
@@ -5881,19 +5936,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5931,8 +5986,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5944,8 +5999,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5957,8 +6012,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5970,8 +6025,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5983,8 +6038,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5996,8 +6051,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6009,8 +6064,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6022,8 +6077,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6084,36 +6139,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6398,36 +6453,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6712,36 +6767,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7028,36 +7083,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
